--- a/Guild Digital/Example CHT application/forms/app/wash_report.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/wash_report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -216,7 +216,7 @@
     <t xml:space="preserve">hh_have_backyard_garden</t>
   </si>
   <si>
-    <t xml:space="preserve">Does the Household have a vegetable garden?</t>
+    <t xml:space="preserve">Does the Household have a backyard garden?</t>
   </si>
   <si>
     <t xml:space="preserve"> A  backyard garden is one with fruits and vegetables within close proximity of the home</t>
@@ -693,21 +693,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.3"/>
@@ -1244,8 +1244,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1254,13 +1254,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
@@ -6150,8 +6150,8 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6160,7 +6160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -6172,7 +6172,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.83984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.01"/>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="C2" s="8" t="n">
         <f aca="true">NOW()</f>
-        <v>45138.8439416988</v>
+        <v>45039.6253626379</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>164</v>
@@ -6216,8 +6216,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
